--- a/data/stat probs/myles turner stat probs - condition.xlsx
+++ b/data/stat probs/myles turner stat probs - condition.xlsx
@@ -45,12 +45,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="46" state="visible" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 after 2023 regular" sheetId="47" state="visible" r:id="rId47"/>
@@ -579,28 +579,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2695,28 +2695,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -3881,28 +3881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -5773,28 +5773,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -6479,28 +6479,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -7857,28 +7857,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -9235,28 +9235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10261,28 +10261,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -11287,22 +11287,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12025,28 +12025,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -13403,22 +13403,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14141,28 +14141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15199,28 +15199,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16257,28 +16257,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16707,28 +16707,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17157,22 +17157,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17927,22 +17927,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18697,22 +18697,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19467,22 +19467,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20237,28 +20237,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -21519,28 +21519,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -22897,28 +22897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -24179,28 +24179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -25141,28 +25141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -26103,28 +26103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -26905,28 +26905,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -27707,28 +27707,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28637,28 +28637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29567,28 +29567,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30497,28 +30497,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31364,7 +31364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31427,28 +31427,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31471,16 +31471,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31503,16 +31503,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -31529,22 +31529,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -31561,16 +31561,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -31593,10 +31593,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -31625,10 +31625,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -31651,16 +31651,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -31683,16 +31683,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -31715,16 +31715,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -31747,16 +31747,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -31779,10 +31779,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -31811,10 +31811,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -31875,10 +31875,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -31896,486 +31896,6 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>71</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>43</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>43</v>
-      </c>
-      <c r="D23" t="n">
-        <v>57</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>43</v>
-      </c>
-      <c r="D24" t="n">
-        <v>57</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>43</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>43</v>
-      </c>
-      <c r="D26" t="n">
-        <v>57</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>29</v>
-      </c>
-      <c r="D27" t="n">
-        <v>71</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>29</v>
-      </c>
-      <c r="D28" t="n">
-        <v>71</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>29</v>
-      </c>
-      <c r="D29" t="n">
-        <v>71</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>86</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>86</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -32453,28 +31973,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -33763,1032 +33283,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>57</v>
-      </c>
-      <c r="H3" t="n">
-        <v>43</v>
-      </c>
-      <c r="I3" t="n">
-        <v>86</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>86</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>29</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>57</v>
-      </c>
-      <c r="F8" t="n">
-        <v>43</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>86</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>43</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>86</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>57</v>
-      </c>
-      <c r="F10" t="n">
-        <v>43</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>86</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>43</v>
-      </c>
-      <c r="F11" t="n">
-        <v>57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>71</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>86</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>71</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>71</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>71</v>
-      </c>
-      <c r="D15" t="n">
-        <v>29</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>71</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>71</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>43</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>43</v>
-      </c>
-      <c r="D23" t="n">
-        <v>57</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>43</v>
-      </c>
-      <c r="D24" t="n">
-        <v>57</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>43</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>43</v>
-      </c>
-      <c r="D26" t="n">
-        <v>57</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>29</v>
-      </c>
-      <c r="D27" t="n">
-        <v>71</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>29</v>
-      </c>
-      <c r="D28" t="n">
-        <v>71</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>29</v>
-      </c>
-      <c r="D29" t="n">
-        <v>71</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>86</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>86</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34857,28 +33351,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35334,553 +33828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35949,28 +33897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36746,7 +34694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36815,28 +34763,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37604,6 +35552,1866 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>67</v>
+      </c>
+      <c r="D21" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>67</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>67</v>
+      </c>
+      <c r="D23" t="n">
+        <v>33</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>67</v>
+      </c>
+      <c r="D25" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="n">
+        <v>67</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>67</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>67</v>
+      </c>
+      <c r="D21" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>67</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>67</v>
+      </c>
+      <c r="D23" t="n">
+        <v>33</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>67</v>
+      </c>
+      <c r="D25" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="n">
+        <v>67</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>67</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -37681,28 +37489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -38547,28 +38355,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -39413,28 +39221,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40791,28 +40599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42169,28 +41977,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43195,28 +43003,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -44253,28 +44061,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45279,28 +45087,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46017,28 +45825,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46755,28 +46563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -47717,28 +47525,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -48679,28 +48487,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -49417,28 +49225,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -50155,28 +49963,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50765,28 +50573,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51375,28 +51183,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -52145,28 +51953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -53203,28 +53011,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -53973,28 +53781,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54935,28 +54743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55897,28 +55705,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -56443,28 +56251,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -56989,28 +56797,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57727,28 +57535,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58465,28 +58273,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59043,28 +58851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59621,22 +59429,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -60199,28 +60007,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -61577,22 +61385,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -62155,16 +61963,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -62173,10 +61981,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -62477,16 +62285,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -62495,10 +62303,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -62799,28 +62607,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -63665,28 +63473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -64531,28 +64339,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65717,28 +65525,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66903,22 +66711,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -67577,22 +67385,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -68251,28 +68059,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -69533,28 +69341,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -70911,28 +70719,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72193,28 +72001,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72547,28 +72355,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72901,28 +72709,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -73671,28 +73479,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -74441,28 +74249,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -75275,28 +75083,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -76109,28 +75917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -77199,28 +77007,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -78289,28 +78097,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -78963,16 +78771,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -78981,10 +78789,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -79701,28 +79509,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -80375,22 +80183,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -80665,22 +80473,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
